--- a/Testdata/TC08_DeleteServices.xlsx
+++ b/Testdata/TC08_DeleteServices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4477A5-3083-4509-885A-F5A4EF414EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA1338-6731-47F3-8A1B-0FD818DC71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>TDID</t>
   </si>
@@ -216,25 +216,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>แรน่นดราแ</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Emp03</t>
-  </si>
-  <si>
     <t>ลบรายการบริการสำเร็จ</t>
   </si>
   <si>
     <t>ลบรายการบริการสำเร็จไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>Delete Servise</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
   </si>
 </sst>
 </file>
@@ -292,7 +289,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +349,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,19 +392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -406,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -419,25 +421,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -906,7 +917,7 @@
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -938,7 +949,7 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -968,7 +979,7 @@
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1000,13 +1011,13 @@
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1032,7 +1043,7 @@
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1064,7 +1075,7 @@
       <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1096,7 +1107,7 @@
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1128,7 +1139,7 @@
       <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1160,7 +1171,7 @@
       <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1192,7 +1203,7 @@
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1224,7 +1235,7 @@
       <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1256,7 +1267,7 @@
       <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -1288,7 +1299,7 @@
       <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1320,7 +1331,7 @@
       <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1352,7 +1363,7 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -1381,88 +1392,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6">
+      <c r="I1" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6">
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
